--- a/NL/Simulations.xlsx
+++ b/NL/Simulations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
   <si>
     <t>Team</t>
   </si>
@@ -88,118 +88,133 @@
     <t>Sturm Graz</t>
   </si>
   <si>
+    <t>Austria Vienna</t>
+  </si>
+  <si>
     <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>Austria Vienna</t>
-  </si>
-  <si>
     <t>Rapid Vienna</t>
   </si>
   <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>A. Klagenfurt</t>
   </si>
   <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>LASK</t>
   </si>
   <si>
+    <t>Tirol</t>
+  </si>
+  <si>
     <t>Admira</t>
   </si>
   <si>
     <t>Hartberg</t>
   </si>
   <si>
-    <t>Tirol</t>
-  </si>
-  <si>
     <t>Altach</t>
   </si>
   <si>
-    <t>23</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>aut_teams</t>
@@ -345,13 +360,13 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -368,7 +383,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -380,13 +395,13 @@
         <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -403,25 +418,25 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -438,25 +453,25 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -476,22 +491,22 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -508,25 +523,25 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -546,22 +561,22 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
         <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -581,22 +596,22 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -613,25 +628,25 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -651,19 +666,19 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -686,22 +701,22 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -718,25 +733,25 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -758,22 +773,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -781,22 +796,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -804,22 +819,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -830,19 +845,19 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -850,22 +865,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -873,22 +888,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -899,19 +914,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -922,19 +937,19 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -942,22 +957,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -968,19 +983,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -991,19 +1006,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1011,22 +1026,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1034,22 +1049,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1068,22 +1083,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -1106,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1120,7 +1135,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1129,12 +1144,12 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1143,21 +1158,21 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1166,16 +1181,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1192,18 +1207,18 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1212,21 +1227,21 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1238,13 +1253,13 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1261,18 +1276,18 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1281,21 +1296,21 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -1307,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -1318,7 +1333,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1330,13 +1345,13 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1350,16 +1365,16 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/NL/Simulations.xlsx
+++ b/NL/Simulations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="81">
   <si>
     <t>Team</t>
   </si>
@@ -88,12 +88,12 @@
     <t>Sturm Graz</t>
   </si>
   <si>
+    <t>Rapid Vienna</t>
+  </si>
+  <si>
     <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>Rapid Vienna</t>
-  </si>
-  <si>
     <t>Austria Vienna</t>
   </si>
   <si>
@@ -118,100 +118,109 @@
     <t>Altach</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-29</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-29</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>aut_teams</t>
@@ -351,16 +360,16 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -386,16 +395,16 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -412,25 +421,25 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -447,25 +456,25 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -485,22 +494,22 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -520,22 +529,22 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -558,19 +567,19 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -590,22 +599,22 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -625,22 +634,22 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -660,22 +669,22 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -695,22 +704,22 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -730,22 +739,22 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -767,22 +776,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -793,19 +802,19 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +825,19 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -839,19 +848,19 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -862,19 +871,19 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +894,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -908,19 +917,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -928,22 +937,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -954,19 +963,19 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -977,19 +986,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1000,19 +1009,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -1023,19 +1032,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1043,22 +1052,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1077,22 +1086,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -1115,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1138,12 +1147,12 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1152,21 +1161,21 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1175,16 +1184,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1201,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -1224,13 +1233,13 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1250,10 +1259,10 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1270,13 +1279,13 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1302,13 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1316,13 +1325,13 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1339,13 +1348,13 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1362,13 +1371,13 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/NL/Simulations.xlsx
+++ b/NL/Simulations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
   <si>
     <t>Team</t>
   </si>
@@ -88,27 +88,27 @@
     <t>Sturm Graz</t>
   </si>
   <si>
+    <t>Wolfsberger AC</t>
+  </si>
+  <si>
+    <t>Austria Vienna</t>
+  </si>
+  <si>
     <t>Rapid Vienna</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
-  </si>
-  <si>
-    <t>Austria Vienna</t>
-  </si>
-  <si>
     <t>Tirol</t>
   </si>
   <si>
+    <t>LASK</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>A. Klagenfurt</t>
   </si>
   <si>
-    <t>LASK</t>
-  </si>
-  <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>Hartberg</t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>Altach</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>16</t>
@@ -133,94 +133,97 @@
     <t>17</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>59</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
-    <t>19</t>
+    <t>22</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>51</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>-29</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>26</t>
   </si>
   <si>
     <t>aut_teams</t>
@@ -363,13 +366,13 @@
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -392,19 +395,19 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -421,25 +424,25 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -456,25 +459,25 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -491,22 +494,22 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>45</v>
@@ -526,7 +529,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -538,13 +541,13 @@
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -564,22 +567,22 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -599,22 +602,22 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -637,19 +640,19 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -672,19 +675,19 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -707,19 +710,19 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -736,7 +739,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -745,16 +748,16 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -776,22 +779,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -799,22 +802,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +828,19 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -848,19 +851,19 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -868,22 +871,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -894,19 +897,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -914,22 +917,22 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -937,22 +940,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -960,22 +963,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -986,19 +989,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1009,19 +1012,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1032,19 +1035,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1052,22 +1055,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1086,22 +1089,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1124,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1144,15 +1147,15 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1161,21 +1164,21 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1184,21 +1187,21 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1207,13 +1210,13 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1230,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1239,12 +1242,12 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1256,18 +1259,18 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1279,18 +1282,18 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1305,10 +1308,10 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1328,10 +1331,10 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1351,10 +1354,10 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1368,7 +1371,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1377,7 +1380,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/NL/Simulations.xlsx
+++ b/NL/Simulations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="86">
   <si>
     <t>Team</t>
   </si>
@@ -88,15 +88,15 @@
     <t>Sturm Graz</t>
   </si>
   <si>
+    <t>Rapid Vienna</t>
+  </si>
+  <si>
     <t>Wolfsberger AC</t>
   </si>
   <si>
     <t>Austria Vienna</t>
   </si>
   <si>
-    <t>Rapid Vienna</t>
-  </si>
-  <si>
     <t>Tirol</t>
   </si>
   <si>
@@ -118,130 +118,142 @@
     <t>Altach</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-11</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>aut_teams</t>
+  </si>
+  <si>
+    <t>aut_games_played_sim</t>
+  </si>
+  <si>
+    <t>aut_total_wins_sim</t>
+  </si>
+  <si>
+    <t>aut_total_draws_sim</t>
+  </si>
+  <si>
+    <t>aut_total_loss_sim</t>
+  </si>
+  <si>
+    <t>aut_PTS_sim</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-26</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>aut_teams</t>
-  </si>
-  <si>
-    <t>aut_games_played_sim</t>
-  </si>
-  <si>
-    <t>aut_total_wins_sim</t>
-  </si>
-  <si>
-    <t>aut_total_draws_sim</t>
-  </si>
-  <si>
-    <t>aut_total_loss_sim</t>
-  </si>
-  <si>
-    <t>aut_PTS_sim</t>
   </si>
   <si>
     <t>Team_f</t>
@@ -354,25 +366,25 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -389,25 +401,25 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -421,28 +433,28 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -459,25 +471,25 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -494,25 +506,25 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -526,28 +538,28 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -561,28 +573,28 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -602,22 +614,22 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -637,22 +649,22 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -672,22 +684,22 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
         <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -707,22 +719,22 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -739,25 +751,25 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -779,22 +791,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -805,19 +817,19 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -828,19 +840,19 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -851,19 +863,19 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -871,22 +883,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -897,19 +909,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -920,19 +932,19 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -940,22 +952,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -966,19 +978,19 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -989,19 +1001,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -1012,19 +1024,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -1035,19 +1047,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -1055,22 +1067,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1089,22 +1101,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
@@ -1118,16 +1130,16 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -1141,44 +1153,44 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1187,21 +1199,21 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1210,16 +1222,16 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1230,19 +1242,19 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1253,19 +1265,19 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -1282,13 +1294,13 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1305,13 +1317,13 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -1328,13 +1340,13 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -1351,13 +1363,13 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1371,16 +1383,16 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/NL/Simulations.xlsx
+++ b/NL/Simulations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="71">
   <si>
     <t>Team</t>
   </si>
@@ -106,12 +106,12 @@
     <t>Tirol</t>
   </si>
   <si>
+    <t>Hartberg</t>
+  </si>
+  <si>
     <t>Altach</t>
   </si>
   <si>
-    <t>Hartberg</t>
-  </si>
-  <si>
     <t>Ried</t>
   </si>
   <si>
@@ -121,109 +121,112 @@
     <t>0</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>aut_teams</t>
+  </si>
+  <si>
+    <t>aut_games_played_sim</t>
+  </si>
+  <si>
+    <t>aut_total_wins_sim</t>
+  </si>
+  <si>
+    <t>aut_total_draws_sim</t>
+  </si>
+  <si>
+    <t>aut_total_loss_sim</t>
+  </si>
+  <si>
+    <t>aut_PTS_sim</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Team_f</t>
+  </si>
+  <si>
+    <t>P_f</t>
+  </si>
+  <si>
+    <t>W_f</t>
+  </si>
+  <si>
+    <t>D_f</t>
+  </si>
+  <si>
+    <t>L_f</t>
+  </si>
+  <si>
+    <t>PTS_f</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>aut_teams</t>
-  </si>
-  <si>
-    <t>aut_games_played_sim</t>
-  </si>
-  <si>
-    <t>aut_total_wins_sim</t>
-  </si>
-  <si>
-    <t>aut_total_draws_sim</t>
-  </si>
-  <si>
-    <t>aut_total_loss_sim</t>
-  </si>
-  <si>
-    <t>aut_PTS_sim</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>Team_f</t>
-  </si>
-  <si>
-    <t>P_f</t>
-  </si>
-  <si>
-    <t>W_f</t>
-  </si>
-  <si>
-    <t>D_f</t>
-  </si>
-  <si>
-    <t>L_f</t>
-  </si>
-  <si>
-    <t>PTS_f</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -315,10 +318,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -330,10 +333,10 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -350,10 +353,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -365,13 +368,13 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -385,7 +388,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -394,19 +397,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -420,10 +423,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -432,16 +435,16 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -455,10 +458,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -467,16 +470,16 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -490,7 +493,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -499,19 +502,19 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -525,7 +528,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -534,19 +537,19 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -560,7 +563,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -569,16 +572,16 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -598,10 +601,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -610,13 +613,13 @@
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -630,28 +633,28 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -665,10 +668,10 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -677,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -712,13 +715,13 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -743,22 +746,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -772,16 +775,16 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +795,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -812,22 +815,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -838,19 +841,19 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -858,22 +861,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -884,19 +887,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -907,16 +910,16 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -930,19 +933,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -953,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -976,19 +979,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -999,19 +1002,19 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1022,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1031,10 +1034,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1079,10 +1082,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1102,13 +1105,13 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1125,16 +1128,16 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>66</v>
@@ -1142,22 +1145,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>67</v>
@@ -1165,13 +1168,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1194,7 +1197,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1206,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1217,19 +1220,19 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1240,88 +1243,88 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1332,7 +1335,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>

--- a/NL/Simulations.xlsx
+++ b/NL/Simulations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="74">
   <si>
     <t>Team</t>
   </si>
@@ -100,93 +100,111 @@
     <t>Rapid Vienna</t>
   </si>
   <si>
+    <t>Tirol</t>
+  </si>
+  <si>
     <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>Tirol</t>
+    <t>Altach</t>
+  </si>
+  <si>
+    <t>Ried</t>
   </si>
   <si>
     <t>Hartberg</t>
   </si>
   <si>
-    <t>Altach</t>
-  </si>
-  <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>Admira</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>aut_teams</t>
+  </si>
+  <si>
+    <t>aut_games_played_sim</t>
+  </si>
+  <si>
+    <t>aut_total_wins_sim</t>
+  </si>
+  <si>
+    <t>aut_total_draws_sim</t>
+  </si>
+  <si>
+    <t>aut_total_loss_sim</t>
+  </si>
+  <si>
+    <t>aut_PTS_sim</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>aut_teams</t>
-  </si>
-  <si>
-    <t>aut_games_played_sim</t>
-  </si>
-  <si>
-    <t>aut_total_wins_sim</t>
-  </si>
-  <si>
-    <t>aut_total_draws_sim</t>
-  </si>
-  <si>
-    <t>aut_total_loss_sim</t>
-  </si>
-  <si>
-    <t>aut_PTS_sim</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>Team_f</t>
   </si>
   <si>
@@ -205,9 +223,6 @@
     <t>PTS_f</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -217,16 +232,10 @@
     <t>38</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>34</t>
   </si>
   <si>
     <t>31</t>
-  </si>
-  <si>
-    <t>29</t>
   </si>
 </sst>
 </file>
@@ -318,10 +327,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -333,10 +342,10 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -353,10 +362,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -368,13 +377,13 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -388,10 +397,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -403,10 +412,10 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>36</v>
@@ -423,7 +432,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -432,19 +441,19 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -458,7 +467,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -467,19 +476,19 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -493,7 +502,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -502,19 +511,19 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -528,7 +537,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -537,19 +546,19 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -563,10 +572,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -575,16 +584,16 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -598,28 +607,28 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -633,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -645,16 +654,16 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -671,25 +680,25 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -715,13 +724,13 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -746,22 +755,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -772,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -781,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -795,7 +804,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -815,13 +824,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -830,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -841,19 +850,19 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -861,22 +870,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -887,10 +896,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -899,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -910,19 +919,19 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -930,22 +939,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -956,10 +965,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -968,7 +977,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -979,10 +988,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -991,7 +1000,7 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -999,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1022,10 +1031,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1034,10 +1043,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1056,22 +1065,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -1082,10 +1091,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1094,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1105,10 +1114,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1117,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1128,7 +1137,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1140,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1151,88 +1160,88 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1240,13 +1249,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1260,13 +1269,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1275,10 +1284,10 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1286,10 +1295,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1298,33 +1307,33 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -1335,7 +1344,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>

--- a/NL/Simulations.xlsx
+++ b/NL/Simulations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="78">
   <si>
     <t>Team</t>
   </si>
@@ -97,18 +97,18 @@
     <t>A. Klagenfurt</t>
   </si>
   <si>
+    <t>Tirol</t>
+  </si>
+  <si>
     <t>Rapid Vienna</t>
   </si>
   <si>
-    <t>Tirol</t>
+    <t>Altach</t>
   </si>
   <si>
     <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>Altach</t>
-  </si>
-  <si>
     <t>Ried</t>
   </si>
   <si>
@@ -118,124 +118,136 @@
     <t>Admira</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>aut_teams</t>
+  </si>
+  <si>
+    <t>aut_games_played_sim</t>
+  </si>
+  <si>
+    <t>aut_total_wins_sim</t>
+  </si>
+  <si>
+    <t>aut_total_draws_sim</t>
+  </si>
+  <si>
+    <t>aut_total_loss_sim</t>
+  </si>
+  <si>
+    <t>aut_PTS_sim</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Team_f</t>
+  </si>
+  <si>
+    <t>P_f</t>
+  </si>
+  <si>
+    <t>W_f</t>
+  </si>
+  <si>
+    <t>D_f</t>
+  </si>
+  <si>
+    <t>L_f</t>
+  </si>
+  <si>
+    <t>PTS_f</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>13</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>aut_teams</t>
-  </si>
-  <si>
-    <t>aut_games_played_sim</t>
-  </si>
-  <si>
-    <t>aut_total_wins_sim</t>
-  </si>
-  <si>
-    <t>aut_total_draws_sim</t>
-  </si>
-  <si>
-    <t>aut_total_loss_sim</t>
-  </si>
-  <si>
-    <t>aut_PTS_sim</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Team_f</t>
-  </si>
-  <si>
-    <t>P_f</t>
-  </si>
-  <si>
-    <t>W_f</t>
-  </si>
-  <si>
-    <t>D_f</t>
-  </si>
-  <si>
-    <t>L_f</t>
-  </si>
-  <si>
-    <t>PTS_f</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -327,28 +339,28 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -362,28 +374,28 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -397,28 +409,28 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -432,28 +444,28 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -467,28 +479,28 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -502,28 +514,28 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -537,13 +549,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -552,13 +564,13 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -572,7 +584,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -581,19 +593,19 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -607,16 +619,16 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -628,7 +640,7 @@
         <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -642,19 +654,19 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
@@ -663,7 +675,7 @@
         <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -677,7 +689,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -686,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
         <v>53</v>
@@ -712,28 +724,28 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -755,22 +767,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -781,19 +793,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -804,19 +816,19 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -824,22 +836,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -850,19 +862,19 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -873,19 +885,19 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -896,19 +908,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -916,22 +928,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -942,16 +954,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -965,19 +977,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -988,19 +1000,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1008,16 +1020,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1031,22 +1043,22 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1065,22 +1077,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -1091,10 +1103,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1103,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -1114,10 +1126,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1126,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1137,19 +1149,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1160,27 +1172,27 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1189,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -1206,24 +1218,24 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1232,70 +1244,70 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1304,13 +1316,13 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1321,19 +1333,19 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1344,19 +1356,19 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
